--- a/数据整理/stocks/A股/深证主板/000932-华菱钢铁.xlsx
+++ b/数据整理/stocks/A股/深证主板/000932-华菱钢铁.xlsx
@@ -451,491 +451,657 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001219</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根动态多因子策略混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>006104</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>华泰柏瑞量化智慧灵活配置混合C</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>92.33</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1.29</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005166</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实润和量化6个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>25.81</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005167</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实润泽量化一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>25.21</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010246</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化先行混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>93.45</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001637</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>87.77</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001244</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化智慧灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>460009</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化先行混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.45</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001219</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>上投摩根动态多因子策略混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>502023</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>168203</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中融国证钢铁行业指数</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007593</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏扬中证500质量成长指数A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>95.57</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007594</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏扬中证500质量成长指数C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>95.57</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>515210</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>国泰中证钢铁ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>96.57</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005055</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006532</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005632</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>鹏华量化先锋混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>92.76</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -945,7 +1111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,15 +1132,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -986,26 +1162,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002906</t>
+          <t>720001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方中证500量化增强股票A</t>
+          <t>财通价值动量混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>19.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>79.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8602</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1014,26 +1200,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002907</t>
+          <t>001480</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方中证500量化增强股票C</t>
+          <t>财通成长优选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>14.61</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>95.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7144</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1042,26 +1238,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004192</t>
+          <t>160106</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>招商中证500指数增强A</t>
+          <t>南方高增长混合(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.94</t>
+          <t>16.92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7005</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1070,26 +1276,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004193</t>
+          <t>515150</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商中证500指数增强C</t>
+          <t>富国中证国企一带一路ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.94</t>
+          <t>14.97</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2680</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1098,26 +1314,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005437</t>
+          <t>502023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达易百智能量化策略灵活配置混合A</t>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>80.81</t>
+          <t>6.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1126,26 +1352,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005438</t>
+          <t>515110</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>易方达易百智能量化策略灵活配置混合C</t>
+          <t>易方达中证国企一带一路ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>80.81</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1154,26 +1390,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009336</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>平安中证500指数增强A</t>
+          <t>国泰中证钢铁ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1182,26 +1428,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009337</t>
+          <t>002906</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>平安中证500指数增强C</t>
+          <t>南方中证500量化增强股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1210,26 +1466,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009339</t>
+          <t>450004</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>万家民瑞祥和6个月持有期债券C</t>
+          <t>国富深化价值混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1181</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1238,25 +1504,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000065</t>
+          <t>501046</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国富焦点驱动灵活配置混合</t>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>21.39</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1266,26 +1542,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>290014</t>
+          <t>515990</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>泰信现代服务业混合</t>
+          <t>汇添富中证国企一带一路ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1294,25 +1580,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000916</t>
+          <t>168203</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>前海开源股息率100强等权重股票</t>
+          <t>中融国证钢铁行业指数</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1322,26 +1618,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>450004</t>
+          <t>000065</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国富深化价值混合</t>
+          <t>国富焦点驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>80.12</t>
+          <t>15.39</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1350,25 +1656,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>501046</t>
+          <t>001276</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>财通多策略福鑫定期开放灵活配置混合</t>
+          <t>建信新经济灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>87.45</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1378,26 +1694,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>502023</t>
+          <t>007593</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
+          <t>鹏扬中证500质量成长指数A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
+          <t>95.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1406,26 +1732,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001244</t>
+          <t>002907</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+          <t>南方中证500量化增强股票C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>86.77</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1434,26 +1770,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006104</t>
+          <t>001825</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+          <t>建信中国制造2025股票</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>86.77</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1462,26 +1808,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>512040</t>
+          <t>001244</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>富国中证价值ETF</t>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>98.57</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1490,26 +1846,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>001276</t>
+          <t>007594</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>建信新经济灵活配置混合</t>
+          <t>鹏扬中证500质量成长指数C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>87.30</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>8</v>
+          <t>95.80</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1518,26 +1884,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>007593</t>
+          <t>000916</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长指数A</t>
+          <t>前海开源股息率100强等权重股票</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>95.80</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1546,26 +1922,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>007594</t>
+          <t>512040</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鹏扬中证500质量成长指数C</t>
+          <t>富国中证价值ETF</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>95.80</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1574,26 +1960,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>515110</t>
+          <t>290014</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>易方达中证国企一带一路ETF</t>
+          <t>泰信现代服务业混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>99.12</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>3</v>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1602,26 +1998,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>515150</t>
+          <t>008778</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>富国中证国企一带一路ETF</t>
+          <t>嘉实中证500指数增强A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>98.72</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1630,26 +2036,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>004192</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>国泰中证钢铁ETF</t>
+          <t>招商中证500指数增强A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>98.47</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>5</v>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1658,26 +2074,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>515510</t>
+          <t>519183</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>嘉实中证500成长估值ETF</t>
+          <t>万家双引擎灵活配置混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>98.96</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>5</v>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -1686,26 +2112,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>001480</t>
+          <t>005161</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>财通成长优选混合</t>
+          <t>华商上游产业股票</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>95.27</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>9</v>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1714,25 +2150,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>515990</t>
+          <t>005167</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>汇添富中证国企一带一路ETF</t>
+          <t>嘉实润泽量化一年定期开放混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>97.53</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
+          <t>26.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1742,26 +2188,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>519183</t>
+          <t>008779</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>万家双引擎灵活配置混合</t>
+          <t>嘉实中证500指数增强C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>6</v>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1770,25 +2226,35 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>001825</t>
+          <t>005437</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>建信中国制造2025股票</t>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>84.63</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1798,26 +2264,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>160106</t>
+          <t>004193</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>南方高增长混合(LOF)</t>
+          <t>招商中证500指数增强C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>85.77</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>7</v>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1826,25 +2302,35 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>720001</t>
+          <t>009336</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>财通价值动量混合</t>
+          <t>平安中证500指数增强A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>79.67</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1854,26 +2340,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>005161</t>
+          <t>005166</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华商上游产业股票</t>
+          <t>嘉实润和量化6个月定期开放混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>83.09</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>2</v>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -1882,26 +2378,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>005166</t>
+          <t>515510</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>嘉实润和量化6个月定期开放混合</t>
+          <t>嘉实中证500成长估值ETF</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>24.04</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>7</v>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1910,26 +2416,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>005167</t>
+          <t>005438</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>嘉实润泽量化一年定期开放混合</t>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>26.41</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>3</v>
+          <t>80.81</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -1938,26 +2454,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>008778</t>
+          <t>009337</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>嘉实中证500指数增强A</t>
+          <t>平安中证500指数增强C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>8</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -1966,26 +2492,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>008779</t>
+          <t>009339</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>嘉实中证500指数增强C</t>
+          <t>万家民瑞祥和6个月持有期债券C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>8</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -1994,26 +2530,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>168203</t>
+          <t>006104</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>中融国证钢铁行业指数</t>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>93.17</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>5</v>
+          <t>86.77</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000932-华菱钢铁.xlsx
+++ b/数据整理/stocks/A股/深证主板/000932-华菱钢铁.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2565,4 +2566,896 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7293</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5845</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5667</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5316</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1303</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003298</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003299</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实物流产业股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>47.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000932-华菱钢铁.xlsx
+++ b/数据整理/stocks/A股/深证主板/000932-华菱钢铁.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3458,4 +3459,1162 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7803</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7708</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519196</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家新兴蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>72.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6803</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519181</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家和谐增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6301</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009199</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家价值优势一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6113</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161912</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5951</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519195</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家品质生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4002</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2887</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515150</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2657</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>46.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2451</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>45.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2334</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2244</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2244</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1998</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515110</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1853</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>39.17</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515990</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证国企一带一路ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001045</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>23.05</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001046</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券I</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>23.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004481</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝第三产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>161913</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家社会责任18个月定期开放混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008230</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>九泰天辰量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012887</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏可转债增强债券C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000932-华菱钢铁.xlsx
+++ b/数据整理/stocks/A股/深证主板/000932-华菱钢铁.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4617,4 +4618,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000932-华菱钢铁.xlsx
+++ b/数据整理/stocks/A股/深证主板/000932-华菱钢铁.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4626,7 +4627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4637,17 +4638,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4657,14 +4678,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.14</v>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8042</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4673,14 +4716,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.17</v>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7004</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4689,14 +4754,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>37</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.15</v>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2230</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -4705,13 +4792,721 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>44.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1476</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004340</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康兴泰回报沪港深混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>47.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>39.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002331</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康安泰回报混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003182</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003183</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000932-华菱钢铁.xlsx
+++ b/数据整理/stocks/A股/深证主板/000932-华菱钢铁.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5405,7 +5406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5416,17 +5417,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5436,14 +5457,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.69</v>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8640</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -5452,14 +5495,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.14</v>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8273</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -5468,14 +5533,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.17</v>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2807</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -5484,14 +5571,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>37</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.15</v>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2223</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -5500,13 +5609,661 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004495</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时量化平衡混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>38.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1227</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>48.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012963</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>64.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012964</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商稳健平衡混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>64.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008838</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008839</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>德邦量化对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>38.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>37</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>16</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000932-华菱钢铁.xlsx
+++ b/数据整理/stocks/A股/深证主板/000932-华菱钢铁.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6146,7 +6147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6157,17 +6158,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6177,14 +6198,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.74</v>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9435</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -6193,14 +6236,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.69</v>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5665</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -6209,14 +6274,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>29</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.14</v>
+          <t>015147</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏兴融灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2650</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -6225,14 +6312,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.17</v>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -6241,14 +6350,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>37</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.15</v>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2215</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -6257,13 +6388,563 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013890</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>55.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>60.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011997</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013891</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>55.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011998</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>37</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000932-华菱钢铁.xlsx
+++ b/数据整理/stocks/A股/深证主板/000932-华菱钢铁.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>2.69</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>7.14</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>4.17</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>4.15</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>37</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>16</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.78</t>
+          <t>14.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.10</t>
+          <t>97.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9435</t>
+          <t>0.6517</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>502023</t>
+          <t>014917</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
+          <t>汇丰晋信时代先锋混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.68</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>94.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5665</t>
+          <t>0.5353</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>015147</t>
+          <t>502023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏兴融灵活配置混合（LOF）C</t>
+          <t>鹏华国证钢铁行业指数（LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.99</t>
+          <t>94.49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2650</t>
+          <t>0.4399</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -770,32 +787,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012810</t>
+          <t>540002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华国证钢铁行业指数（LOF）C</t>
+          <t>汇丰晋信龙腾混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2488</t>
+          <t>0.2931</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>540002</t>
+          <t>540006</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇丰晋信龙腾混合</t>
+          <t>汇丰晋信大盘股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>14.62</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2215</t>
+          <t>0.2032</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -846,32 +863,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>168203</t>
+          <t>012810</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中融国证钢铁行业指数</t>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.76</t>
+          <t>94.49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1984</t>
+          <t>0.2014</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>013890</t>
+          <t>168203</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰睿毅三年持有期混合A</t>
+          <t>中融国证钢铁行业指数A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>55.35</t>
+          <t>92.81</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1166</t>
+          <t>0.1523</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -922,32 +939,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>260117</t>
+          <t>014918</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>景顺长城支柱产业混合</t>
+          <t>汇丰晋信时代先锋混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>60.86</t>
+          <t>94.48</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0428</t>
+          <t>0.0780</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>519677</t>
+          <t>260117</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+          <t>景顺长城支柱产业混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>89.87</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0376</t>
+          <t>0.0490</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -998,36 +1015,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011997</t>
+          <t>003176</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
+          <t>德邦景颐债券A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25.88</t>
+          <t>22.77</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0301</t>
+          <t>0.0203</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1036,32 +1053,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>013891</t>
+          <t>008116</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国泰睿毅三年持有期混合C</t>
+          <t>银华沪深股通精选混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>55.35</t>
+          <t>88.46</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0107</t>
+          <t>0.0197</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1074,36 +1091,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>013802</t>
+          <t>540004</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>财通资管中证钢铁指数A</t>
+          <t>汇丰晋信2026周期混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>33.59</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0053</t>
+          <t>0.0153</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1112,36 +1129,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008112</t>
+          <t>013802</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中泰中证500指数增强A</t>
+          <t>财通资管中证钢铁指数A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>92.45</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0043</t>
+          <t>0.0035</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1150,36 +1167,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008113</t>
+          <t>013803</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中泰中证500指数增强C</t>
+          <t>财通资管中证钢铁指数C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>92.45</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1188,36 +1205,34 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>011998</t>
+          <t>016815</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
+          <t>中融国证钢铁行业指数C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25.88</t>
+          <t>92.81</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1226,36 +1241,34 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>013803</t>
+          <t>003177</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>财通资管中证钢铁指数C</t>
+          <t>德邦景颐债券C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>22.77</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1264,6 +1277,670 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9435</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5665</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015147</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏兴融灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2650</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2215</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013890</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>55.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>60.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011997</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013891</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>55.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011998</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2003,7 +2680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2781,7 +3458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3939,7 +4616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4831,7 +5508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6293,7 +6970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000932-华菱钢铁.xlsx
+++ b/数据整理/stocks/A股/深证主板/000932-华菱钢铁.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>2.66</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>2.69</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>7.14</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>4.17</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>4.15</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>37</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>16</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -616,7 +633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -643,7 +660,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -673,36 +690,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>460009</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰中证钢铁ETF</t>
+          <t>华泰柏瑞量化先行混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.23</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.88</t>
+          <t>93.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6517</t>
+          <t>0.1090</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -711,32 +728,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>014917</t>
+          <t>001244</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信时代先锋混合A</t>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.51</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>92.33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5353</t>
+          <t>0.0779</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -749,36 +766,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>502023</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华国证钢铁行业指数（LOF）A</t>
+          <t>国泰中证钢铁ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.48</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>96.57</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4399</t>
+          <t>0.0729</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +804,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>540002</t>
+          <t>005055</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇丰晋信龙腾混合</t>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2931</t>
+          <t>0.0530</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +842,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>540006</t>
+          <t>001219</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇丰晋信大盘股票A</t>
+          <t>上投摩根动态多因子策略混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14.62</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>94.70</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2032</t>
+          <t>0.0393</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +880,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012810</t>
+          <t>005632</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华国证钢铁行业指数（LOF）C</t>
+          <t>鹏华量化先锋混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.34</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.49</t>
+          <t>92.76</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2014</t>
+          <t>0.0382</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +918,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>168203</t>
+          <t>502023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中融国证钢铁行业指数A</t>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>94.83</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1523</t>
+          <t>0.0339</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -939,32 +956,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>014918</t>
+          <t>001637</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇丰晋信时代先锋混合C</t>
+          <t>嘉实腾讯自选股大数据策略股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>87.77</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0780</t>
+          <t>0.0304</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -977,36 +994,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>260117</t>
+          <t>007593</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>景顺长城支柱产业混合</t>
+          <t>鹏扬中证500质量成长指数A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.87</t>
+          <t>95.57</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.20</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0490</t>
+          <t>0.0234</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1015,36 +1032,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003176</t>
+          <t>168203</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>德邦景颐债券A</t>
+          <t>中融国证钢铁行业指数</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>22.77</t>
+          <t>93.23</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0203</t>
+          <t>0.0216</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1053,36 +1070,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008116</t>
+          <t>007594</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>银华沪深股通精选混合</t>
+          <t>鹏扬中证500质量成长指数C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>88.46</t>
+          <t>95.57</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0197</t>
+          <t>0.0194</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1091,36 +1108,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>540004</t>
+          <t>005167</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>汇丰晋信2026周期混合</t>
+          <t>嘉实润泽量化一年定期开放混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>33.59</t>
+          <t>25.21</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0153</t>
+          <t>0.0067</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1129,36 +1146,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>013802</t>
+          <t>005166</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>财通资管中证钢铁指数A</t>
+          <t>嘉实润和量化6个月定期开放混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>25.81</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1167,36 +1184,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>013803</t>
+          <t>006104</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>财通资管中证钢铁指数C</t>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>92.45</t>
+          <t>92.33</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1205,12 +1222,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>016815</t>
+          <t>010246</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中融国证钢铁行业指数C</t>
+          <t>华泰柏瑞量化先行混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1220,19 +1237,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>93.45</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1241,12 +1258,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>003177</t>
+          <t>006532</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>德邦景颐债券C</t>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1256,19 +1273,1101 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>22.77</t>
+          <t>94.40</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0766</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014597</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8937</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7929</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7184</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4781</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014917</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇丰晋信时代先锋混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3963</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3503</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015450</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2076</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002455</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银鑫喜灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014918</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇丰晋信时代先锋混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>016815</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1343,26 +2442,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.78</t>
+          <t>14.23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.10</t>
+          <t>97.88</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9435</t>
+          <t>0.6517</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1371,36 +2470,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>502023</t>
+          <t>014917</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
+          <t>汇丰晋信时代先锋混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.68</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>94.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5665</t>
+          <t>0.5353</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1409,36 +2508,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>015147</t>
+          <t>502023</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏兴融灵活配置混合（LOF）C</t>
+          <t>鹏华国证钢铁行业指数（LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.35</t>
+          <t>9.48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.99</t>
+          <t>94.49</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2650</t>
+          <t>0.4399</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1447,32 +2546,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012810</t>
+          <t>540002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华国证钢铁行业指数（LOF）C</t>
+          <t>汇丰晋信龙腾混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>93.98</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2488</t>
+          <t>0.2931</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1485,36 +2584,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>540002</t>
+          <t>540006</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇丰晋信龙腾混合</t>
+          <t>汇丰晋信大盘股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>14.62</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2215</t>
+          <t>0.2032</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1523,32 +2622,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>168203</t>
+          <t>012810</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中融国证钢铁行业指数</t>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.76</t>
+          <t>94.49</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1984</t>
+          <t>0.2014</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1561,36 +2660,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>013890</t>
+          <t>168203</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰睿毅三年持有期混合A</t>
+          <t>中融国证钢铁行业指数A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.25</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>55.35</t>
+          <t>92.81</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1166</t>
+          <t>0.1523</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1599,32 +2698,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>260117</t>
+          <t>014918</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>景顺长城支柱产业混合</t>
+          <t>汇丰晋信时代先锋混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>60.86</t>
+          <t>94.48</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0428</t>
+          <t>0.0780</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1637,36 +2736,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>519677</t>
+          <t>260117</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+          <t>景顺长城支柱产业混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>89.87</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>7.20</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0376</t>
+          <t>0.0490</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1675,36 +2774,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011997</t>
+          <t>003176</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
+          <t>德邦景颐债券A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25.88</t>
+          <t>22.77</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0301</t>
+          <t>0.0203</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1713,32 +2812,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>013891</t>
+          <t>008116</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国泰睿毅三年持有期混合C</t>
+          <t>银华沪深股通精选混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>55.35</t>
+          <t>88.46</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0107</t>
+          <t>0.0197</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1751,36 +2850,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>013802</t>
+          <t>540004</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>财通资管中证钢铁指数A</t>
+          <t>汇丰晋信2026周期混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>33.59</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0053</t>
+          <t>0.0153</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1789,36 +2888,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008112</t>
+          <t>013802</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中泰中证500指数增强A</t>
+          <t>财通资管中证钢铁指数A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>92.45</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0043</t>
+          <t>0.0035</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1827,36 +2926,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008113</t>
+          <t>013803</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中泰中证500指数增强C</t>
+          <t>财通资管中证钢铁指数C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.21</t>
+          <t>92.45</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1865,36 +2964,34 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>011998</t>
+          <t>016815</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
+          <t>中融国证钢铁行业指数C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25.88</t>
+          <t>92.81</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1903,36 +3000,34 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>013803</t>
+          <t>003177</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>财通资管中证钢铁指数C</t>
+          <t>德邦景颐债券C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>91.92</t>
+          <t>22.77</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1941,6 +3036,670 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9435</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>502023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5665</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015147</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏兴融灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2650</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华国证钢铁行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2215</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>168203</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融国证钢铁行业指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013890</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>55.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>60.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011997</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013891</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>55.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013802</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011998</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013803</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通资管中证钢铁指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2680,7 +4439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3458,7 +5217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4616,7 +6375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5508,7 +7267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6968,664 +8727,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>460009</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化先行混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1090</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001244</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化智慧灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0779</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>515210</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰中证钢铁ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>96.57</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0729</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005055</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0530</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001219</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>上投摩根动态多因子策略混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0393</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005632</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华量化先锋混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.76</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0382</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>502023</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华国证钢铁行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0339</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001637</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>87.77</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0304</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007593</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏扬中证500质量成长指数A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>95.57</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0234</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>168203</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中融国证钢铁行业指数</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0216</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007594</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏扬中证500质量成长指数C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>95.57</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0194</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005167</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉实润泽量化一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>25.21</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005166</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>嘉实润和量化6个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>25.81</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006104</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化智慧灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>010246</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化先行混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.45</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>006532</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.40</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>